--- a/ING.SOFT-1/tps/tp2/TP2-TABLA-MODELOS-DE-PROCESO-2025-ING-SOFT1.xlsx
+++ b/ING.SOFT-1/tps/tp2/TP2-TABLA-MODELOS-DE-PROCESO-2025-ING-SOFT1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACULTAD\INGENIERIA-EN-INFORMATICA\CUARTO\primerCuatrimestre\ING.SOFT-1\tps\tp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA9B080-F32C-45AB-97E3-9FF4B925D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDF917F-2A39-4C08-AFBB-17F776CF8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D397EE44-914C-4FBA-A529-A793CCCA98CF}"/>
   </bookViews>
@@ -16,30 +16,19 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$R$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$R$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>MODELO EN CASCADA</t>
   </si>
@@ -78,9 +67,6 @@
   </si>
   <si>
     <t>Generalmente la mejor opcion para aplicar este metodo es para proyectos de tamaño pequeño y/o cuando el cliente tiene lo requerimentos estrictamente bien definidos</t>
-  </si>
-  <si>
-    <t>Se basa principalmente en la elaboracion de "incrementos", basandose en el flujo de proceso lineal y en paralelo. Los incrementos son elaborador en procesos secuenciales escalonados, donde cada escalon reprensenta la creacion de un incremento. Se puede aplicar el metodo partiendo con poco personal de trabajo</t>
   </si>
   <si>
     <t>Mayor complejidad en la planificacion y gestion, posibles dficultades en la administracion de cambios, mayor esfuerzo en pruebas  y validaciones para cada incremento, necesidad de un equipo flexible, respecto a esto ultimo debido a que al principio el equipo puede ser pequeño pero segun evolucione el proyecto se puede llegar a complejizar tanto que el equipo de desarrollo crezca y tenga que abarcar mas areas no contempladas en un principio</t>
@@ -107,15 +93,24 @@
 Si no se controla bien, puede haber excesivas iteraciones, prolongando el desarrollo</t>
   </si>
   <si>
-    <t>Basado principalmente en el flujo de proceso iterativo, evolucionando incremento a incremento. Puede haber en alguna sub tarea un flujo secuencial, puesta esta puede estar estrictamente bien definida</t>
-  </si>
-  <si>
     <t>Basado principalmente en el flujo iterativo, donde en cada avance pueden estar involucrados todo tipo de flujo para poder implementar o desarrollar un nueva mejora para el proyecto</t>
   </si>
   <si>
     <t>Conocimiento inicial bajo, útil para definir requisitos mediante prueba y error.
 Tamaño del proyecto variable, ideal para sistemas con incertidumbre en requerimientos.
 Probabilidad de cambios alta, se espera ajustar el sistema conforme se recopila feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTES: diapositivas proporcionadas, fragmento capitulo 2 ingenieria de software- Pressman, IA Microsoft Copilot </t>
+  </si>
+  <si>
+    <t>Basado principalmente en el flujo de proceso evolutivo, permitiendo generar incrementos. Puede haber en alguna subtarea un flujo secuencial, puesta esta puede estar estrictamente bien definida. Como asi tambien dentro de estas subtareas algun flujo de proceso en paralelo.</t>
+  </si>
+  <si>
+    <t>Entrega temprana: Cada incremento entrega funcionalidades básicas de inmediato.
+Mitigación de riesgos: La planificación escalonada permite identificar y resolver problemas técnicos progresivamente.
+Adaptabilidad: Se ajusta y mejora el sistema con la retroalimentación constante del usuario.
+Optimización de recursos: Inicia con un equipo reducido y se amplía conforme se valida el producto.</t>
   </si>
 </sst>
 </file>
@@ -251,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,6 +269,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -286,12 +290,30 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,31 +322,18 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Énfasis5" xfId="7" builtinId="47"/>
@@ -650,7 +659,7 @@
   <dimension ref="A2:R31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection sqref="A1:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,536 +671,572 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1206,12 +1251,14 @@
       <c r="A31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="M2:R3"/>
-    <mergeCell ref="M4:R7"/>
-    <mergeCell ref="M8:R11"/>
-    <mergeCell ref="M12:R15"/>
-    <mergeCell ref="M16:R19"/>
+  <mergeCells count="25">
+    <mergeCell ref="A25:F26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B4:F7"/>
+    <mergeCell ref="G4:L7"/>
+    <mergeCell ref="G2:L3"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="M20:R23"/>
     <mergeCell ref="B12:F15"/>
     <mergeCell ref="B16:F19"/>
@@ -1225,12 +1272,11 @@
     <mergeCell ref="G12:L15"/>
     <mergeCell ref="G16:L19"/>
     <mergeCell ref="G20:L23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B4:F7"/>
-    <mergeCell ref="G4:L7"/>
-    <mergeCell ref="G2:L3"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="M2:R3"/>
+    <mergeCell ref="M4:R7"/>
+    <mergeCell ref="M8:R11"/>
+    <mergeCell ref="M12:R15"/>
+    <mergeCell ref="M16:R19"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" scale="55" fitToWidth="2" fitToHeight="2" orientation="landscape" r:id="rId1"/>
